--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="Composite Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t>gender</t>
   </si>
@@ -149,9 +150,6 @@
     <t>Not available</t>
   </si>
   <si>
-    <t>micro_histo</t>
-  </si>
-  <si>
     <t>evidence_ivh</t>
   </si>
   <si>
@@ -171,13 +169,76 @@
   </si>
   <si>
     <t>Gade 4</t>
+  </si>
+  <si>
+    <t>dur_rom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of ROM </t>
+  </si>
+  <si>
+    <t>histo_chorio</t>
+  </si>
+  <si>
+    <t>bayley_scores</t>
+  </si>
+  <si>
+    <t>no_bayleys_ref</t>
+  </si>
+  <si>
+    <t>mri</t>
+  </si>
+  <si>
+    <t>gma_writhing</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>Chaotic</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>compNDIdeath</t>
+  </si>
+  <si>
+    <t>variable_name</t>
+  </si>
+  <si>
+    <t>variable_description</t>
+  </si>
+  <si>
+    <t>variable_options</t>
+  </si>
+  <si>
+    <t>compsevNDIdeath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No </t>
+  </si>
+  <si>
+    <t>clinical_chorio</t>
+  </si>
+  <si>
+    <t>If reason_for_preterm_birth = 3 (Triple I (clinical chorio)) then 1</t>
+  </si>
+  <si>
+    <t>Composite NDI/death outcome: 1 if motor, language, cognitive score &lt;85 or CP/GDD/Death is recorded</t>
+  </si>
+  <si>
+    <t>Composite severe NDI/death outcome: 1 if thresholds &lt;70 and CP included</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +253,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,9 +282,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,446 +566,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24" style="1" customWidth="1"/>
+    <col min="1" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>38</v>
+      </c>
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>37</v>
-      </c>
-      <c r="C55" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>2</v>
-      </c>
-      <c r="C65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>4</v>
-      </c>
-      <c r="C67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68">
-        <v>5</v>
-      </c>
-      <c r="C68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5844"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="Composite Variables" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="71">
   <si>
     <t>gender</t>
   </si>
@@ -232,6 +233,12 @@
   </si>
   <si>
     <t>Composite severe NDI/death outcome: 1 if thresholds &lt;70 and CP included</t>
+  </si>
+  <si>
+    <t>Rupture of membranes</t>
+  </si>
+  <si>
+    <t>DNA</t>
   </si>
 </sst>
 </file>
@@ -282,9 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -566,30 +574,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -608,7 +616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -619,7 +627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>2</v>
       </c>
@@ -627,7 +635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>3</v>
       </c>
@@ -635,7 +643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>4</v>
       </c>
@@ -643,7 +651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -654,7 +662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2</v>
       </c>
@@ -662,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>3</v>
       </c>
@@ -670,7 +678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>4</v>
       </c>
@@ -678,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>5</v>
       </c>
@@ -686,7 +694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>6</v>
       </c>
@@ -694,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>7</v>
       </c>
@@ -702,7 +710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>8</v>
       </c>
@@ -710,7 +718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>9</v>
       </c>
@@ -718,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>10</v>
       </c>
@@ -726,7 +734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>11</v>
       </c>
@@ -734,7 +742,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -745,7 +753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>1</v>
       </c>
@@ -753,7 +761,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -764,7 +772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>1</v>
       </c>
@@ -772,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>2</v>
       </c>
@@ -780,10 +788,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B34" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="C34">
         <v>0</v>
       </c>
@@ -791,7 +802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>1</v>
       </c>
@@ -799,7 +810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -807,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -818,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C41">
         <v>2</v>
       </c>
@@ -826,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>3</v>
       </c>
@@ -834,7 +845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -842,7 +853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -850,7 +861,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -861,7 +872,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>1</v>
       </c>
@@ -869,7 +880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>37</v>
       </c>
@@ -877,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>38</v>
       </c>
@@ -885,7 +896,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>50</v>
       </c>
@@ -896,7 +907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>1</v>
       </c>
@@ -904,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>37</v>
       </c>
@@ -912,7 +923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>38</v>
       </c>
@@ -920,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -931,7 +942,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>1</v>
       </c>
@@ -939,7 +950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>38</v>
       </c>
@@ -947,7 +958,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>42</v>
       </c>
@@ -958,7 +969,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>2</v>
       </c>
@@ -966,7 +977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>3</v>
       </c>
@@ -974,7 +985,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>4</v>
       </c>
@@ -982,7 +993,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>5</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>37</v>
       </c>
@@ -998,7 +1009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>38</v>
       </c>
@@ -1006,7 +1017,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>51</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>1</v>
       </c>
@@ -1025,7 +1036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
@@ -1036,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>1</v>
       </c>
@@ -1044,73 +1055,81 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C88">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C89">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C91">
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C90">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C92">
         <v>4</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C94">
-        <v>1</v>
-      </c>
-      <c r="D94" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1124,29 +1143,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>59</v>
       </c>
@@ -1160,7 +1179,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1168,7 +1187,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>63</v>
       </c>
@@ -1182,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
@@ -1190,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>65</v>
       </c>
@@ -1204,7 +1223,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9">
         <v>1</v>
       </c>
